--- a/documentation/conception/scenario.xlsx
+++ b/documentation/conception/scenario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PW-LunarDev\Documentation\Conception\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjWebLunar\documentation\conception\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Description Courte Du Scénario</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Je Veux</t>
   </si>
   <si>
-    <t>Me connecter</t>
-  </si>
-  <si>
     <t>Pour</t>
   </si>
   <si>
@@ -55,21 +52,6 @@
     <t>Action</t>
   </si>
   <si>
-    <t>Condition Particulière</t>
-  </si>
-  <si>
-    <t>Réaction</t>
-  </si>
-  <si>
-    <t>Clicker sur "Login"</t>
-  </si>
-  <si>
-    <t>être déjà enregistrer sur le site</t>
-  </si>
-  <si>
-    <t>Redirection sur la page d'acceuil</t>
-  </si>
-  <si>
     <t>Membre</t>
   </si>
   <si>
@@ -79,18 +61,12 @@
     <t>Titre</t>
   </si>
   <si>
-    <t>Importante</t>
-  </si>
-  <si>
     <t>Logout</t>
   </si>
   <si>
     <t>Me déonnecter</t>
   </si>
   <si>
-    <t>Accéder à mon profil ou acheter un/des produit(s)</t>
-  </si>
-  <si>
     <t>Optionel</t>
   </si>
   <si>
@@ -103,53 +79,105 @@
     <t>Register</t>
   </si>
   <si>
-    <t>Utilisateur</t>
-  </si>
-  <si>
-    <t>M'inscrire</t>
-  </si>
-  <si>
-    <t>Devenir membre</t>
-  </si>
-  <si>
-    <t>Entrer  l'email</t>
-  </si>
-  <si>
     <t>Se diriger sur "Se connecter"</t>
   </si>
   <si>
-    <t>Se diriger sur "S'inscrire"</t>
-  </si>
-  <si>
     <t>Entrer l'email</t>
   </si>
   <si>
-    <t>Entrer le pseudo</t>
-  </si>
-  <si>
-    <t>Clicker sur "S'enregistrer"</t>
-  </si>
-  <si>
-    <t>Entrer le password</t>
-  </si>
-  <si>
-    <t>Dois correspondre a l'email</t>
-  </si>
-  <si>
-    <t>Dois correspondre au password</t>
-  </si>
-  <si>
-    <t>Vérifie que  un email sois rentrer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vérifie que le email sois pas déjà enrgistrer, Enrgistre le Pseudo, Enrgistre le Email, Enrgistre le passw0rd, </t>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Short Description Of The Script</t>
+  </si>
+  <si>
+    <t>As a</t>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want </t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>membre</t>
+  </si>
+  <si>
+    <t>Access my profile or purchase product(s)</t>
+  </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <t>Scenario Details</t>
+  </si>
+  <si>
+    <t>Special Condition</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Enter email</t>
+  </si>
+  <si>
+    <t>Go to "Connect"</t>
+  </si>
+  <si>
+    <t>Enter  password</t>
+  </si>
+  <si>
+    <t>Must match password</t>
+  </si>
+  <si>
+    <t>Must correspond to the email</t>
+  </si>
+  <si>
+    <t>be already registered on the site</t>
+  </si>
+  <si>
+    <t>Redirection to the home page</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Become a member</t>
+  </si>
+  <si>
+    <t>Go to "register"</t>
+  </si>
+  <si>
+    <t>Enter the pseudo</t>
+  </si>
+  <si>
+    <t>Enter the password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "Se connecter".
+</t>
+  </si>
+  <si>
+    <t>Click on "S'enregistrer"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the email is not already registered, Register Nickname, Register Email, Register passw0rd, </t>
+  </si>
+  <si>
+    <t>Check that an email is received</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +187,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -198,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -378,7 +414,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -394,50 +430,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -526,63 +523,37 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,6 +565,66 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -602,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,197 +645,180 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,7 +1103,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,78 +1111,79 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="A1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+      <c r="A3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
+      <c r="A6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="43"/>
+      <c r="A7" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="35"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1176,71 +1191,71 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="40"/>
+      <c r="A8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="A9" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45" t="s">
+      <c r="A10" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="A12" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -1300,7 +1315,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="A8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,86 +1326,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+      <c r="A3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
+      <c r="A6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="43"/>
+      <c r="A7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1398,34 +1413,34 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="40"/>
+      <c r="A8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
+      <c r="A9" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1454,176 +1469,181 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="59"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B4" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="58"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="58"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="67"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="66"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="D8" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="66"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="66"/>
-    </row>
-    <row r="13" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="49"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="49"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="49"/>
+    </row>
+    <row r="13" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="D8:F8"/>
+  <mergeCells count="18">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
